--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cdh1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H2">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N2">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q2">
-        <v>0.6005908836239257</v>
+        <v>0.65907739504</v>
       </c>
       <c r="R2">
-        <v>0.6005908836239257</v>
+        <v>5.931696555359999</v>
       </c>
       <c r="S2">
-        <v>0.03222662217528724</v>
+        <v>0.02009306252414124</v>
       </c>
       <c r="T2">
-        <v>0.03222662217528724</v>
+        <v>0.02009306252414124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H3">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N3">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q3">
-        <v>0.8202902881493558</v>
+        <v>0.9112470621919998</v>
       </c>
       <c r="R3">
-        <v>0.8202902881493558</v>
+        <v>8.201223559727998</v>
       </c>
       <c r="S3">
-        <v>0.0440152954549337</v>
+        <v>0.027780871159225</v>
       </c>
       <c r="T3">
-        <v>0.0440152954549337</v>
+        <v>0.027780871159225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H4">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N4">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q4">
-        <v>4.482362987312653</v>
+        <v>5.046394390096</v>
       </c>
       <c r="R4">
-        <v>4.482362987312653</v>
+        <v>45.417549510864</v>
       </c>
       <c r="S4">
-        <v>0.2405155029543679</v>
+        <v>0.1538476645759041</v>
       </c>
       <c r="T4">
-        <v>0.2405155029543679</v>
+        <v>0.1538476645759041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H5">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N5">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q5">
-        <v>4.057341917787488</v>
+        <v>6.658581410897999</v>
       </c>
       <c r="R5">
-        <v>4.057341917787488</v>
+        <v>59.92723269808199</v>
       </c>
       <c r="S5">
-        <v>0.2177096399324765</v>
+        <v>0.2029978476247667</v>
       </c>
       <c r="T5">
-        <v>0.2177096399324765</v>
+        <v>0.2029978476247668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H6">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I6">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J6">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N6">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q6">
-        <v>0.1615531039682321</v>
+        <v>0.18675879067</v>
       </c>
       <c r="R6">
-        <v>0.1615531039682321</v>
+        <v>1.68082911603</v>
       </c>
       <c r="S6">
-        <v>0.008668647801336211</v>
+        <v>0.005693650072215828</v>
       </c>
       <c r="T6">
-        <v>0.008668647801336211</v>
+        <v>0.005693650072215829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H7">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N7">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q7">
-        <v>0.5051933143685258</v>
+        <v>0.9298019903022222</v>
       </c>
       <c r="R7">
-        <v>0.5051933143685258</v>
+        <v>8.36821791272</v>
       </c>
       <c r="S7">
-        <v>0.02710776089273796</v>
+        <v>0.02834654877683926</v>
       </c>
       <c r="T7">
-        <v>0.02710776089273796</v>
+        <v>0.02834654877683927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H8">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N8">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q8">
-        <v>0.6899957703553419</v>
+        <v>1.285553621561778</v>
       </c>
       <c r="R8">
-        <v>0.6899957703553419</v>
+        <v>11.569982594056</v>
       </c>
       <c r="S8">
-        <v>0.03702392693611316</v>
+        <v>0.03919222460149664</v>
       </c>
       <c r="T8">
-        <v>0.03702392693611316</v>
+        <v>0.03919222460149665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H9">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I9">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J9">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N9">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q9">
-        <v>3.770386590118859</v>
+        <v>7.119266391280889</v>
       </c>
       <c r="R9">
-        <v>3.770386590118859</v>
+        <v>64.07339752152801</v>
       </c>
       <c r="S9">
-        <v>0.2023121352781213</v>
+        <v>0.2170425898423395</v>
       </c>
       <c r="T9">
-        <v>0.2023121352781213</v>
+        <v>0.2170425898423396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H10">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I10">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J10">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N10">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q10">
-        <v>3.412875664388051</v>
+        <v>9.393680158104333</v>
       </c>
       <c r="R10">
-        <v>3.412875664388051</v>
+        <v>84.543121422939</v>
       </c>
       <c r="S10">
-        <v>0.1831287446519687</v>
+        <v>0.2863818485795891</v>
       </c>
       <c r="T10">
-        <v>0.1831287446519687</v>
+        <v>0.2863818485795892</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.776571</v>
+      </c>
+      <c r="I11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4449116666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.334735</v>
+      </c>
+      <c r="O11">
+        <v>0.01387297366559358</v>
+      </c>
+      <c r="P11">
+        <v>0.01387297366559358</v>
+      </c>
+      <c r="Q11">
+        <v>0.2634723881872222</v>
+      </c>
+      <c r="R11">
+        <v>2.371251493685</v>
+      </c>
+      <c r="S11">
+        <v>0.008032390746627522</v>
+      </c>
+      <c r="T11">
+        <v>0.008032390746627524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.032498</v>
+      </c>
+      <c r="I12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.570106666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.71032</v>
+      </c>
+      <c r="O12">
+        <v>0.04895814174088396</v>
+      </c>
+      <c r="P12">
+        <v>0.04895814174088397</v>
+      </c>
+      <c r="Q12">
+        <v>0.01700844215111111</v>
+      </c>
+      <c r="R12">
+        <v>0.15307597936</v>
+      </c>
+      <c r="S12">
+        <v>0.0005185304399034558</v>
+      </c>
+      <c r="T12">
+        <v>0.0005185304399034559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="H11">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="I11">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="J11">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.421904865465889</v>
-      </c>
-      <c r="N11">
-        <v>0.421904865465889</v>
-      </c>
-      <c r="O11">
-        <v>0.01596037172399353</v>
-      </c>
-      <c r="P11">
-        <v>0.01596037172399353</v>
-      </c>
-      <c r="Q11">
-        <v>0.1358920860532738</v>
-      </c>
-      <c r="R11">
-        <v>0.1358920860532738</v>
-      </c>
-      <c r="S11">
-        <v>0.007291723922657315</v>
-      </c>
-      <c r="T11">
-        <v>0.007291723922657315</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.032498</v>
+      </c>
+      <c r="I13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.170845333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.512536</v>
+      </c>
+      <c r="O13">
+        <v>0.06769002118340356</v>
+      </c>
+      <c r="P13">
+        <v>0.06769002118340357</v>
+      </c>
+      <c r="Q13">
+        <v>0.02351604388088889</v>
+      </c>
+      <c r="R13">
+        <v>0.211644394928</v>
+      </c>
+      <c r="S13">
+        <v>0.000716925422681918</v>
+      </c>
+      <c r="T13">
+        <v>0.0007169254226819182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.032498</v>
+      </c>
+      <c r="I14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.02192266666667</v>
+      </c>
+      <c r="N14">
+        <v>36.06576800000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3748605151535007</v>
+      </c>
+      <c r="P14">
+        <v>0.3748605151535007</v>
+      </c>
+      <c r="Q14">
+        <v>0.1302294809404445</v>
+      </c>
+      <c r="R14">
+        <v>1.172065328464</v>
+      </c>
+      <c r="S14">
+        <v>0.003970260735257049</v>
+      </c>
+      <c r="T14">
+        <v>0.003970260735257049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.032498</v>
+      </c>
+      <c r="I15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.862603</v>
+      </c>
+      <c r="N15">
+        <v>47.587809</v>
+      </c>
+      <c r="O15">
+        <v>0.4946183482566181</v>
+      </c>
+      <c r="P15">
+        <v>0.4946183482566182</v>
+      </c>
+      <c r="Q15">
+        <v>0.1718342907646667</v>
+      </c>
+      <c r="R15">
+        <v>1.546508616882</v>
+      </c>
+      <c r="S15">
+        <v>0.005238652052262188</v>
+      </c>
+      <c r="T15">
+        <v>0.005238652052262189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.032498</v>
+      </c>
+      <c r="I16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4449116666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.334735</v>
+      </c>
+      <c r="O16">
+        <v>0.01387297366559358</v>
+      </c>
+      <c r="P16">
+        <v>0.01387297366559358</v>
+      </c>
+      <c r="Q16">
+        <v>0.004819579781111111</v>
+      </c>
+      <c r="R16">
+        <v>0.04337621803</v>
+      </c>
+      <c r="S16">
+        <v>0.0001469328467502291</v>
+      </c>
+      <c r="T16">
+        <v>0.0001469328467502291</v>
       </c>
     </row>
   </sheetData>
